--- a/src/com/yiqin/template/tpl_yiqin_21.xlsx
+++ b/src/com/yiqin/template/tpl_yiqin_21.xlsx
@@ -14,6 +14,9 @@
   <sheets>
     <sheet name="订单汇总" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">订单汇总!$1:$8</definedName>
+  </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -256,7 +259,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -297,6 +300,9 @@
     </xf>
     <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -655,7 +661,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -712,7 +718,7 @@
       <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="15" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="3" t="s">
@@ -784,7 +790,7 @@
     <mergeCell ref="D6:E6"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
